--- a/src/plantillas/aprobaciones.xlsx
+++ b/src/plantillas/aprobaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maran\OneDrive\Escritorio\NPM\Original\Sapma-Sercoing\src\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maran\OneDrive\Escritorio\NPM\SAPMA-CASERONES\src\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E5AA26-EAF8-4871-86B6-38E4722396AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50109F2E-FC7C-4FD0-ACD8-4A7D3735445E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tareas aprobadas" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>TAREA</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>OBSERVACION ESTADO</t>
+  </si>
+  <si>
+    <t>OT</t>
   </si>
 </sst>
 </file>
@@ -352,8 +355,8 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -743,66 +746,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="8" customWidth="1"/>
-    <col min="7" max="8" width="26.5" style="8" customWidth="1"/>
-    <col min="9" max="9" width="26.5" style="9" customWidth="1"/>
-    <col min="10" max="10" width="21.875" style="9" customWidth="1"/>
-    <col min="11" max="12" width="19.5" style="8" customWidth="1"/>
-    <col min="13" max="13" width="26.125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="22.125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="23.875" style="11" customWidth="1"/>
-    <col min="16" max="16" width="20" style="8" customWidth="1"/>
-    <col min="17" max="16384" width="11" style="9"/>
+    <col min="1" max="2" width="10.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="25.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="8" customWidth="1"/>
+    <col min="8" max="9" width="26.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="26.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="21.875" style="9" customWidth="1"/>
+    <col min="12" max="13" width="19.5" style="8" customWidth="1"/>
+    <col min="14" max="14" width="26.125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="22.125" style="10" customWidth="1"/>
+    <col min="16" max="16" width="23.875" style="11" customWidth="1"/>
+    <col min="17" max="17" width="20" style="8" customWidth="1"/>
+    <col min="18" max="16384" width="11" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="13"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
-      <c r="K1" s="2"/>
+      <c r="J1" s="13"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="4"/>
+      <c r="M1" s="2"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="2"/>
+      <c r="O1" s="4"/>
       <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="13"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="13"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="4"/>
+      <c r="M2" s="2"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="2"/>
+      <c r="O2" s="4"/>
       <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -811,76 +816,80 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="I3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="4"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="2"/>
+      <c r="O3" s="4"/>
       <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="2" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L8" s="12"/>
+    <row r="5" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M8" s="12"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="12"/>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E10" s="12"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="12"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:I2"/>
+    <mergeCell ref="E1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
